--- a/Projects/CCUS/Pillars/Data/CCUS_Templatev7_Jan2020.xlsx
+++ b/Projects/CCUS/Pillars/Data/CCUS_Templatev7_Jan2020.xlsx
@@ -8,23 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ACC5C02-5A91-FD48-9E4E-CF6764DE915C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB08FA1E-0886-AD4D-84CF-96B92CAEE099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44280" yWindow="660" windowWidth="28800" windowHeight="16240" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -33,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>program_name</t>
   </si>
@@ -65,31 +57,46 @@
     <t>Warm Display with Coke With Meals POS</t>
   </si>
   <si>
+    <t>Meijer All Together Meals</t>
+  </si>
+  <si>
+    <t>Albertsons Bring Home Signature</t>
+  </si>
+  <si>
+    <t>Albertsons Bring home Signature</t>
+  </si>
+  <si>
+    <t>Ahold Deli Combos</t>
+  </si>
+  <si>
+    <t>Kroger Fresh Feasts</t>
+  </si>
+  <si>
+    <t>ShopRite Kitchen</t>
+  </si>
+  <si>
+    <t>GE Family Made Meals</t>
+  </si>
+  <si>
     <t>Walmart</t>
   </si>
   <si>
     <t>QT</t>
   </si>
   <si>
-    <t>Meijer All Together Meals</t>
-  </si>
-  <si>
-    <t>Albertsons Bring Home Signature</t>
-  </si>
-  <si>
-    <t>Ahold Deli Combos</t>
-  </si>
-  <si>
-    <t>ShopRite Kitchen</t>
-  </si>
-  <si>
-    <t>Kroger Fresh Feasts</t>
-  </si>
-  <si>
-    <t>GE Family Made Meals</t>
-  </si>
-  <si>
-    <t>Albertsons Bring home Signature</t>
+    <t>Holidays 2019</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Holiday POS</t>
+  </si>
+  <si>
+    <t>Holiday Meal</t>
+  </si>
+  <si>
+    <t>Sprite NBA</t>
+  </si>
+  <si>
+    <t>Warm Display with Sprite NBA POS</t>
   </si>
   <si>
     <t>Menu Boards</t>
@@ -98,16 +105,58 @@
     <t>DELI ONLY - Coke Menu boards &amp; Non-Display POP Coke Signage</t>
   </si>
   <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>Warm Display with NCAA March Madness POS</t>
+  </si>
+  <si>
+    <t>Coke Hydration</t>
+  </si>
+  <si>
+    <t>Warm Display with Hydration POS</t>
+  </si>
+  <si>
+    <t>Coke Summer</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Summer - Summer Only POS</t>
+  </si>
+  <si>
+    <t>Fanta Spring</t>
+  </si>
+  <si>
+    <t>Warm Display with Spring/Summer PO</t>
+  </si>
+  <si>
+    <t>Coke Womens Soccer</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Summer - US Women's Soccer POS</t>
+  </si>
+  <si>
+    <t>Coke Stranger Things</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Summer - Stranger Things POS</t>
+  </si>
+  <si>
+    <t>Share A Coke</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Fall Football/Share a Coke POS</t>
+  </si>
+  <si>
     <t>Big Game POS</t>
   </si>
   <si>
+    <t>Coke Big Game, Warm Display with Big Game POS</t>
+  </si>
+  <si>
     <t>Energy POS</t>
   </si>
   <si>
     <t>Coke Energy</t>
-  </si>
-  <si>
-    <t>Coke Big Game,Warm Display with Big Game POS</t>
   </si>
 </sst>
 </file>
@@ -117,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,12 +186,21 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -151,12 +209,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -177,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,22 +254,91 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF172B4D"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF1D1C1D"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -514,26 +647,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK13"/>
+  <dimension ref="A1:AMK23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="1"/>
-    <col min="2" max="2" width="24.5" style="1"/>
-    <col min="3" max="3" width="22.1640625" style="1"/>
-    <col min="4" max="4" width="54.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1"/>
-    <col min="6" max="6" width="16.83203125" style="1"/>
-    <col min="7" max="8" width="12.1640625" style="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1"/>
+    <col min="3" max="3" width="21.83203125" style="1"/>
+    <col min="4" max="4" width="45.6640625" style="1"/>
+    <col min="5" max="5" width="12.6640625" style="1"/>
+    <col min="6" max="6" width="16.6640625" style="1"/>
+    <col min="7" max="8" width="11.83203125" style="1"/>
+    <col min="9" max="9" width="14.6640625" style="1"/>
     <col min="10" max="1025" width="6.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,8 +692,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" ht="14">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -572,6 +705,8 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="5">
         <v>43466</v>
       </c>
@@ -579,17 +714,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="28">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5">
@@ -599,17 +734,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="28">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="5">
@@ -619,17 +754,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5">
@@ -639,17 +774,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="14">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="5">
@@ -659,7 +794,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -669,7 +804,7 @@
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="5">
@@ -679,17 +814,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="28">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="5">
@@ -699,17 +834,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="14">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="5">
@@ -719,17 +854,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="5">
@@ -739,77 +874,288 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="5">
         <v>43789</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="10">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5">
+        <v>43789</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43789</v>
+      </c>
+      <c r="H13" s="10">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5">
+        <v>43789</v>
+      </c>
+      <c r="H14" s="5">
         <v>44562</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="5">
+    <row r="15" spans="1:8" ht="14">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H15" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H16" s="5">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H17" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H18" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H19" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H20" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H21" s="5">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16">
+      <c r="A22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="5">
         <v>43840</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H22" s="5">
         <v>44562</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5">
+    <row r="23" spans="1:8" ht="16">
+      <c r="A23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="5">
         <v>43840</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H23" s="5">
         <v>44562</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{117497F3-2730-4FFD-B690-95768496AD69}"/>
-    <hyperlink ref="B12" r:id="rId2" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{875C0F86-1FE3-48CC-A110-0F347168162E}"/>
-    <hyperlink ref="C12" r:id="rId3" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{32715987-CA6E-4421-8220-66FE71430729}"/>
-    <hyperlink ref="B13" r:id="rId4" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{41CCC7FD-8662-4C86-B44B-9A9AAB137860}"/>
-    <hyperlink ref="A13" r:id="rId5" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{A5B0E4D7-ED16-404F-BDB9-29671B2160D3}"/>
-    <hyperlink ref="C13" r:id="rId6" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{78DAD7A4-0478-4B66-AA0F-BB0651597046}"/>
+    <hyperlink ref="A22" r:id="rId1" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{5A2709A8-82C9-0745-B8B0-71A37CD3E54F}"/>
+    <hyperlink ref="B22" r:id="rId2" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{56D1582D-AB7A-3447-B5DB-939ABC8CF822}"/>
+    <hyperlink ref="C22" r:id="rId3" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{E1CD8923-FEAB-4045-86B4-C97EFCD003AB}"/>
+    <hyperlink ref="B23" r:id="rId4" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{A2CB2BC1-E45F-E147-8CE8-BA321CD516C8}"/>
+    <hyperlink ref="A23" r:id="rId5" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{F7447A1C-E2CC-354A-8C91-D878F3311E8A}"/>
+    <hyperlink ref="C23" r:id="rId6" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{7675FC2F-C9DF-564C-BF2C-9B4394F7D466}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId7"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Projects/CCUS/Pillars/Data/CCUS_Templatev7_Jan2020.xlsx
+++ b/Projects/CCUS/Pillars/Data/CCUS_Templatev7_Jan2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB08FA1E-0886-AD4D-84CF-96B92CAEE099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C04B9F0-94D2-DA40-A40A-C33590B206A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44280" yWindow="660" windowWidth="28800" windowHeight="16240" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="1400" windowWidth="28800" windowHeight="16240" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="A1:AMK23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -714,7 +714,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -814,7 +814,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -893,7 +893,7 @@
         <v>43789</v>
       </c>
       <c r="H11" s="10">
-        <v>43840</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17">
@@ -910,7 +910,7 @@
         <v>43789</v>
       </c>
       <c r="H12" s="10">
-        <v>43840</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17">
@@ -930,7 +930,7 @@
         <v>43789</v>
       </c>
       <c r="H13" s="10">
-        <v>43840</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14">

--- a/Projects/CCUS/Pillars/Data/CCUS_Templatev7_Jan2020.xlsx
+++ b/Projects/CCUS/Pillars/Data/CCUS_Templatev7_Jan2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C04B9F0-94D2-DA40-A40A-C33590B206A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA9AEDD-CC14-4B4E-9475-D5DE17B8E1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="1400" windowWidth="28800" windowHeight="16240" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="A1:AMK23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H11" sqref="H11:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -893,7 +893,7 @@
         <v>43789</v>
       </c>
       <c r="H11" s="10">
-        <v>44105</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17">
@@ -910,7 +910,7 @@
         <v>43789</v>
       </c>
       <c r="H12" s="10">
-        <v>44105</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17">
@@ -930,7 +930,7 @@
         <v>43789</v>
       </c>
       <c r="H13" s="10">
-        <v>44105</v>
+        <v>43840</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14">

--- a/Projects/CCUS/Pillars/Data/CCUS_Templatev7_Jan2020.xlsx
+++ b/Projects/CCUS/Pillars/Data/CCUS_Templatev7_Jan2020.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92EF636D-37D2-D749-9FB6-E97FABB661FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA9AEDD-CC14-4B4E-9475-D5DE17B8E1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -33,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>program_name</t>
   </si>
@@ -65,34 +57,46 @@
     <t>Warm Display with Coke With Meals POS</t>
   </si>
   <si>
+    <t>Meijer All Together Meals</t>
+  </si>
+  <si>
+    <t>Albertsons Bring Home Signature</t>
+  </si>
+  <si>
+    <t>Albertsons Bring home Signature</t>
+  </si>
+  <si>
+    <t>Ahold Deli Combos</t>
+  </si>
+  <si>
+    <t>Kroger Fresh Feasts</t>
+  </si>
+  <si>
+    <t>ShopRite Kitchen</t>
+  </si>
+  <si>
+    <t>GE Family Made Meals</t>
+  </si>
+  <si>
     <t>Walmart</t>
   </si>
   <si>
     <t>QT</t>
   </si>
   <si>
-    <t>Meijer All Together Meals</t>
-  </si>
-  <si>
-    <t>Albertsons Bring Home Signature</t>
-  </si>
-  <si>
-    <t>Ahold Deli Combos</t>
-  </si>
-  <si>
-    <t>ShopRite Kitchen</t>
-  </si>
-  <si>
-    <t>Kroger Fresh Feasts</t>
-  </si>
-  <si>
-    <t>GE Family Made Meals</t>
-  </si>
-  <si>
-    <t>Customer Coke with Meals</t>
-  </si>
-  <si>
-    <t>Albertsons Bring home Signature</t>
+    <t>Holidays 2019</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Holiday POS</t>
+  </si>
+  <si>
+    <t>Holiday Meal</t>
+  </si>
+  <si>
+    <t>Sprite NBA</t>
+  </si>
+  <si>
+    <t>Warm Display with Sprite NBA POS</t>
   </si>
   <si>
     <t>Menu Boards</t>
@@ -101,16 +105,58 @@
     <t>DELI ONLY - Coke Menu boards &amp; Non-Display POP Coke Signage</t>
   </si>
   <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>Warm Display with NCAA March Madness POS</t>
+  </si>
+  <si>
+    <t>Coke Hydration</t>
+  </si>
+  <si>
+    <t>Warm Display with Hydration POS</t>
+  </si>
+  <si>
+    <t>Coke Summer</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Summer - Summer Only POS</t>
+  </si>
+  <si>
+    <t>Fanta Spring</t>
+  </si>
+  <si>
+    <t>Warm Display with Spring/Summer PO</t>
+  </si>
+  <si>
+    <t>Coke Womens Soccer</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Summer - US Women's Soccer POS</t>
+  </si>
+  <si>
+    <t>Coke Stranger Things</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Summer - Stranger Things POS</t>
+  </si>
+  <si>
+    <t>Share A Coke</t>
+  </si>
+  <si>
+    <t>Warm Display with Coke Fall Football/Share a Coke POS</t>
+  </si>
+  <si>
     <t>Big Game POS</t>
   </si>
   <si>
+    <t>Coke Big Game, Warm Display with Big Game POS</t>
+  </si>
+  <si>
     <t>Energy POS</t>
   </si>
   <si>
     <t>Coke Energy</t>
-  </si>
-  <si>
-    <t>Coke Big Game,Warm Display with Big Game POS</t>
   </si>
 </sst>
 </file>
@@ -120,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,12 +186,21 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -154,12 +209,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -180,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,22 +254,91 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF172B4D"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF1D1C1D"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -517,26 +647,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK13"/>
+  <dimension ref="A1:AMK23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H11" sqref="H11:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="1"/>
-    <col min="2" max="2" width="24.5" style="1"/>
-    <col min="3" max="3" width="22.1640625" style="1"/>
-    <col min="4" max="4" width="54.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1"/>
-    <col min="6" max="6" width="16.83203125" style="1"/>
-    <col min="7" max="8" width="12.1640625" style="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1"/>
+    <col min="3" max="3" width="21.83203125" style="1"/>
+    <col min="4" max="4" width="45.6640625" style="1"/>
+    <col min="5" max="5" width="12.6640625" style="1"/>
+    <col min="6" max="6" width="16.6640625" style="1"/>
+    <col min="7" max="8" width="11.83203125" style="1"/>
+    <col min="9" max="9" width="14.6640625" style="1"/>
     <col min="10" max="1025" width="6.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,8 +692,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" ht="14">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -575,6 +705,8 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="5">
         <v>43466</v>
       </c>
@@ -582,17 +714,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5">
@@ -602,17 +734,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="28">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="5">
@@ -622,17 +754,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5">
@@ -642,17 +774,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="14">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="5">
@@ -662,9 +794,9 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -672,7 +804,7 @@
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="5">
@@ -682,17 +814,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="5">
@@ -702,17 +834,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="14">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="5">
@@ -722,17 +854,17 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="5">
@@ -742,77 +874,288 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="5">
         <v>43789</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="10">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5">
+        <v>43789</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43789</v>
+      </c>
+      <c r="H13" s="10">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5">
+        <v>43789</v>
+      </c>
+      <c r="H14" s="5">
         <v>44562</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5">
+    <row r="15" spans="1:8" ht="14">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H15" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H16" s="5">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H17" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H18" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H19" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H20" s="5">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="5">
+        <v>43466</v>
+      </c>
+      <c r="H21" s="5">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16">
+      <c r="A22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="5">
         <v>43840</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H22" s="5">
         <v>44562</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="5">
+    <row r="23" spans="1:8" ht="16">
+      <c r="A23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="5">
         <v>43840</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H23" s="5">
         <v>44562</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{117497F3-2730-4FFD-B690-95768496AD69}"/>
-    <hyperlink ref="B12" r:id="rId2" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{875C0F86-1FE3-48CC-A110-0F347168162E}"/>
-    <hyperlink ref="C12" r:id="rId3" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{32715987-CA6E-4421-8220-66FE71430729}"/>
-    <hyperlink ref="B13" r:id="rId4" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{41CCC7FD-8662-4C86-B44B-9A9AAB137860}"/>
-    <hyperlink ref="A13" r:id="rId5" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{A5B0E4D7-ED16-404F-BDB9-29671B2160D3}"/>
-    <hyperlink ref="C13" r:id="rId6" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{78DAD7A4-0478-4B66-AA0F-BB0651597046}"/>
+    <hyperlink ref="A22" r:id="rId1" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{5A2709A8-82C9-0745-B8B0-71A37CD3E54F}"/>
+    <hyperlink ref="B22" r:id="rId2" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{56D1582D-AB7A-3447-B5DB-939ABC8CF822}"/>
+    <hyperlink ref="C22" r:id="rId3" tooltip="Big Game POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3450" xr:uid="{E1CD8923-FEAB-4045-86B4-C97EFCD003AB}"/>
+    <hyperlink ref="B23" r:id="rId4" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{A2CB2BC1-E45F-E147-8CE8-BA321CD516C8}"/>
+    <hyperlink ref="A23" r:id="rId5" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{F7447A1C-E2CC-354A-8C91-D878F3311E8A}"/>
+    <hyperlink ref="C23" r:id="rId6" tooltip="Energy POS" display="https://services.traxretail.com/trax-one/ccus-sand2/products-and-brands/brand/3449" xr:uid="{7675FC2F-C9DF-564C-BF2C-9B4394F7D466}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId7"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
